--- a/webroot/templates/production_planner_template.xlsx
+++ b/webroot/templates/production_planner_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\bsms\webroot\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deepaksingh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA8EE34-8079-42CC-ABE8-188485ABC3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BBA673-BCD2-384E-B026-4467D9623215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Plan Date</t>
   </si>
@@ -37,6 +37,27 @@
   </si>
   <si>
     <t>Material</t>
+  </si>
+  <si>
+    <t>Factory Code</t>
+  </si>
+  <si>
+    <t>1_97_TH_Unit1</t>
+  </si>
+  <si>
+    <t>Line 1</t>
+  </si>
+  <si>
+    <t>RMWIGID019</t>
+  </si>
+  <si>
+    <t>2023-aug-23</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Line  2</t>
   </si>
 </sst>
 </file>
@@ -72,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,21 +376,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47371290-4CE9-4F77-A526-8821093830A9}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -378,6 +401,43 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>120</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/webroot/templates/production_planner_template.xlsx
+++ b/webroot/templates/production_planner_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deepaksingh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BBA673-BCD2-384E-B026-4467D9623215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B44702D-100C-0F49-AFD6-55C0691B9526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,35 +42,48 @@
     <t>Factory Code</t>
   </si>
   <si>
-    <t>1_97_TH_Unit1</t>
-  </si>
-  <si>
-    <t>Line 1</t>
-  </si>
-  <si>
-    <t>RMWIGID019</t>
-  </si>
-  <si>
-    <t>2023-aug-23</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Line  2</t>
+    <t>07-12-2023</t>
+  </si>
+  <si>
+    <t>08-12-2023</t>
+  </si>
+  <si>
+    <t>ORBN020100</t>
+  </si>
+  <si>
+    <t>ORBN022000</t>
+  </si>
+  <si>
+    <t>Line 101</t>
+  </si>
+  <si>
+    <t>IN_13_NaviMumbai_Unit1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,9 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,14 +395,16 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -402,42 +420,42 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>400</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>700</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>120</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
